--- a/Database/Kato/Brasov_CT.xlsx
+++ b/Database/Kato/Brasov_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF62DB-70B5-4539-90B1-A9D9635ECD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E77942-40D9-40EB-8BBC-FFC4EFBFC890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="636" windowWidth="12756" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,9 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2466,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C178" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C183" si="2">SUM(B133:B134+C133)</f>
         <v>1925</v>
       </c>
     </row>
@@ -2996,6 +2998,66 @@
       <c r="C178">
         <f t="shared" si="2"/>
         <v>4262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B179">
+        <v>35</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B180">
+        <v>58</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B181">
+        <v>67</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B182">
+        <v>60</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B183">
+        <v>33</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>4515</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/Brasov_CT.xlsx
+++ b/Database/Kato/Brasov_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E77942-40D9-40EB-8BBC-FFC4EFBFC890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898A1B9-F8F0-465E-BD75-D56C7FB91BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="636" windowWidth="12756" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="336" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C183" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C192" si="2">SUM(B133:B134+C133)</f>
         <v>1925</v>
       </c>
     </row>
@@ -3058,6 +3058,114 @@
       <c r="C183">
         <f t="shared" si="2"/>
         <v>4515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B185">
+        <v>39</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B187">
+        <v>34</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B188">
+        <v>75</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B189">
+        <v>32</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B190">
+        <v>46</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B192">
+        <v>44</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>4862</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/Brasov_CT.xlsx
+++ b/Database/Kato/Brasov_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898A1B9-F8F0-465E-BD75-D56C7FB91BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCE09E-D73B-4831-AD3C-AE24D6CA1AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="336" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14748" yWindow="384" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:C192" si="2">SUM(B133:B134+C133)</f>
+        <f t="shared" ref="C134:C197" si="2">SUM(B133:B134+C133)</f>
         <v>1925</v>
       </c>
     </row>
@@ -2681,11 +2681,11 @@
         <v>44042</v>
       </c>
       <c r="B152">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>2921</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2693,11 +2693,11 @@
         <v>44043</v>
       </c>
       <c r="B153">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>3155</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>3155</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>3180</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>3190</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>3285</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>3376</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>3431</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>3510</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>3542</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>3602</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>3646</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>3673</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>3715</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>3773</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>3811</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>3844</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>3895</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>3927</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>3966</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>3992</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>4062</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>4107</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>4147</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>4186</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>4219</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>4262</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>4297</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>4355</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>4422</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>4482</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>4515</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>4526</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>4565</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>4625</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>4659</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>4734</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>4766</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>4812</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>4818</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,223 @@
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>4862</v>
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B193">
+        <v>56</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B194">
+        <v>50</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B196">
+        <v>53</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="2"/>
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B197">
+        <v>42</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="2"/>
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B198">
+        <v>24</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:C210" si="3">SUM(B197:B198+C197)</f>
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B199">
+        <v>42</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B200">
+        <v>35</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B201">
+        <v>60</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B202">
+        <v>56</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B203">
+        <v>51</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B204">
+        <v>83</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B205">
+        <v>23</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B206">
+        <v>39</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B207">
+        <v>97</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B208">
+        <v>61</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B209">
+        <v>63</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B210">
+        <v>53</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>5766</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/Brasov_CT.xlsx
+++ b/Database/Kato/Brasov_CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCE09E-D73B-4831-AD3C-AE24D6CA1AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFC57D-5E11-4859-ABB9-E4A75A0E822D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14748" yWindow="384" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13152" yWindow="372" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cazuri_SuCazuri_Suceava" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3236,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C210" si="3">SUM(B197:B198+C197)</f>
+        <f t="shared" ref="C198:C245" si="3">SUM(B197:B198+C197)</f>
         <v>5103</v>
       </c>
     </row>
@@ -3382,6 +3382,426 @@
       <c r="C210">
         <f t="shared" si="3"/>
         <v>5766</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B211">
+        <v>52</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B212">
+        <v>83</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B213">
+        <v>58</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B214">
+        <v>31</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B215">
+        <v>61</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B216">
+        <v>78</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B217">
+        <v>77</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B218">
+        <v>92</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B219">
+        <v>42</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B220">
+        <v>48</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B221">
+        <v>95</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>6483</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B222">
+        <v>80</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B224">
+        <v>156</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>6769</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B225">
+        <v>93</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B226">
+        <v>37</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B227">
+        <v>89</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>6988</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B228">
+        <v>105</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B229">
+        <v>130</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B230">
+        <v>116</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B231">
+        <v>115</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B232">
+        <v>247</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B233">
+        <v>139</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B234">
+        <v>57</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B235">
+        <v>127</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B236">
+        <v>137</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B237">
+        <v>233</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B238">
+        <v>114</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B239">
+        <v>97</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B240">
+        <v>54</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>8659</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B241">
+        <v>190</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>8849</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B242">
+        <v>185</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>9034</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B243">
+        <v>209</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B244">
+        <v>149</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B245">
+        <v>163</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>9555</v>
       </c>
     </row>
   </sheetData>
